--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/38/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/38/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.42934</v>
+        <v>3.41453</v>
       </c>
       <c r="C5" t="n">
-        <v>3429.34</v>
+        <v>3414.53</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124006</v>
+        <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>4.399850000000001</v>
+        <v>3.75154</v>
       </c>
       <c r="C6" t="n">
-        <v>4399.85</v>
+        <v>3751.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155041</v>
+        <v>0.154996</v>
       </c>
       <c r="B7" t="n">
-        <v>5.634</v>
+        <v>3.95551</v>
       </c>
       <c r="C7" t="n">
-        <v>5634</v>
+        <v>3955.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186012</v>
+        <v>0.185972</v>
       </c>
       <c r="B8" t="n">
-        <v>6.354229999999999</v>
+        <v>4.01932</v>
       </c>
       <c r="C8" t="n">
-        <v>6354.23</v>
+        <v>4019.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216989</v>
+        <v>0.216948</v>
       </c>
       <c r="B9" t="n">
-        <v>6.627479999999999</v>
+        <v>4.06095</v>
       </c>
       <c r="C9" t="n">
-        <v>6627.48</v>
+        <v>4060.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247965</v>
+        <v>0.247924</v>
       </c>
       <c r="B10" t="n">
-        <v>6.693090000000001</v>
+        <v>4.0921</v>
       </c>
       <c r="C10" t="n">
-        <v>6693.09</v>
+        <v>4092.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278892</v>
+        <v>0.278853</v>
       </c>
       <c r="B11" t="n">
-        <v>6.682180000000001</v>
+        <v>4.12244</v>
       </c>
       <c r="C11" t="n">
-        <v>6682.18</v>
+        <v>4122.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309817</v>
+        <v>0.309778</v>
       </c>
       <c r="B12" t="n">
-        <v>6.66443</v>
+        <v>4.15023</v>
       </c>
       <c r="C12" t="n">
-        <v>6664.43</v>
+        <v>4150.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340742</v>
+        <v>0.340703</v>
       </c>
       <c r="B13" t="n">
-        <v>6.63999</v>
+        <v>4.17635</v>
       </c>
       <c r="C13" t="n">
-        <v>6639.99</v>
+        <v>4176.35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371667</v>
+        <v>0.371628</v>
       </c>
       <c r="B14" t="n">
-        <v>6.61293</v>
+        <v>4.19972</v>
       </c>
       <c r="C14" t="n">
-        <v>6612.93</v>
+        <v>4199.72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402592</v>
+        <v>0.402553</v>
       </c>
       <c r="B15" t="n">
-        <v>6.58316</v>
+        <v>4.22183</v>
       </c>
       <c r="C15" t="n">
-        <v>6583.16</v>
+        <v>4221.83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433517</v>
+        <v>0.433478</v>
       </c>
       <c r="B16" t="n">
-        <v>6.550590000000001</v>
+        <v>4.24304</v>
       </c>
       <c r="C16" t="n">
-        <v>6550.59</v>
+        <v>4243.04</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464442</v>
+        <v>0.464403</v>
       </c>
       <c r="B17" t="n">
-        <v>6.51689</v>
+        <v>4.26327</v>
       </c>
       <c r="C17" t="n">
-        <v>6516.89</v>
+        <v>4263.27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495367</v>
+        <v>0.495328</v>
       </c>
       <c r="B18" t="n">
-        <v>6.483470000000001</v>
+        <v>4.282229999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>6483.47</v>
+        <v>4282.23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526292</v>
+        <v>0.526253</v>
       </c>
       <c r="B19" t="n">
-        <v>6.450130000000001</v>
+        <v>4.3003</v>
       </c>
       <c r="C19" t="n">
-        <v>6450.13</v>
+        <v>4300.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557217</v>
+        <v>0.5571739999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>6.41554</v>
+        <v>4.31791</v>
       </c>
       <c r="C20" t="n">
-        <v>6415.54</v>
+        <v>4317.91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881420000000001</v>
+        <v>0.588099</v>
       </c>
       <c r="B21" t="n">
-        <v>6.377</v>
+        <v>4.33459</v>
       </c>
       <c r="C21" t="n">
-        <v>6377</v>
+        <v>4334.59</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619185</v>
+        <v>0.6191410000000001</v>
       </c>
       <c r="B22" t="n">
-        <v>6.3358</v>
+        <v>4.35087</v>
       </c>
       <c r="C22" t="n">
-        <v>6335.8</v>
+        <v>4350.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650357</v>
+        <v>0.650318</v>
       </c>
       <c r="B23" t="n">
-        <v>6.29144</v>
+        <v>4.366470000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>6291.44</v>
+        <v>4366.47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68153</v>
+        <v>0.68149</v>
       </c>
       <c r="B24" t="n">
-        <v>6.24462</v>
+        <v>4.38155</v>
       </c>
       <c r="C24" t="n">
-        <v>6244.62</v>
+        <v>4381.55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712707</v>
+        <v>0.712663</v>
       </c>
       <c r="B25" t="n">
-        <v>6.19283</v>
+        <v>4.39615</v>
       </c>
       <c r="C25" t="n">
-        <v>6192.83</v>
+        <v>4396.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743879</v>
+        <v>0.7438399999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>6.13891</v>
+        <v>4.41025</v>
       </c>
       <c r="C26" t="n">
-        <v>6138.91</v>
+        <v>4410.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775056</v>
+        <v>0.775013</v>
       </c>
       <c r="B27" t="n">
-        <v>6.081720000000001</v>
+        <v>4.423859999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>6081.72</v>
+        <v>4423.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806229</v>
+        <v>0.80619</v>
       </c>
       <c r="B28" t="n">
-        <v>6.022130000000001</v>
+        <v>4.43708</v>
       </c>
       <c r="C28" t="n">
-        <v>6022.13</v>
+        <v>4437.08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837401</v>
+        <v>0.8373620000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>5.96039</v>
+        <v>4.449920000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>5960.39</v>
+        <v>4449.92</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868578</v>
+        <v>0.8685349999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>5.89632</v>
+        <v>4.46239</v>
       </c>
       <c r="C30" t="n">
-        <v>5896.32</v>
+        <v>4462.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899751</v>
+        <v>0.899712</v>
       </c>
       <c r="B31" t="n">
-        <v>5.829890000000001</v>
+        <v>4.47448</v>
       </c>
       <c r="C31" t="n">
-        <v>5829.89</v>
+        <v>4474.48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9309229999999999</v>
+        <v>0.930884</v>
       </c>
       <c r="B32" t="n">
-        <v>5.760260000000001</v>
+        <v>4.48623</v>
       </c>
       <c r="C32" t="n">
-        <v>5760.26</v>
+        <v>4486.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620840000000001</v>
+        <v>0.9620570000000001</v>
       </c>
       <c r="B33" t="n">
-        <v>4.942460000000001</v>
+        <v>4.49767</v>
       </c>
       <c r="C33" t="n">
-        <v>4942.46</v>
+        <v>4497.67</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.992978</v>
+        <v>0.993234</v>
       </c>
       <c r="B34" t="n">
-        <v>5.476970000000001</v>
+        <v>4.50879</v>
       </c>
       <c r="C34" t="n">
-        <v>5476.97</v>
+        <v>4508.79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02409</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>5.08582</v>
+        <v>4.51962</v>
       </c>
       <c r="C35" t="n">
-        <v>5085.82</v>
+        <v>4519.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05505</v>
+        <v>1.05592</v>
       </c>
       <c r="B36" t="n">
-        <v>5.35435</v>
+        <v>4.53016</v>
       </c>
       <c r="C36" t="n">
-        <v>5354.35</v>
+        <v>4530.16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08601</v>
+        <v>1.0873</v>
       </c>
       <c r="B37" t="n">
-        <v>5.3715</v>
+        <v>4.54045</v>
       </c>
       <c r="C37" t="n">
-        <v>5371.5</v>
+        <v>4540.45</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11709</v>
+        <v>1.11868</v>
       </c>
       <c r="B38" t="n">
-        <v>5.32254</v>
+        <v>4.550470000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>5322.54</v>
+        <v>4550.47</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14814</v>
+        <v>1.15006</v>
       </c>
       <c r="B39" t="n">
-        <v>5.22473</v>
+        <v>4.56026</v>
       </c>
       <c r="C39" t="n">
-        <v>5224.73</v>
+        <v>4560.26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17918</v>
+        <v>1.18144</v>
       </c>
       <c r="B40" t="n">
-        <v>5.08458</v>
+        <v>4.56979</v>
       </c>
       <c r="C40" t="n">
-        <v>5084.58</v>
+        <v>4569.79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21023</v>
+        <v>1.21282</v>
       </c>
       <c r="B41" t="n">
-        <v>4.98007</v>
+        <v>4.57908</v>
       </c>
       <c r="C41" t="n">
-        <v>4980.07</v>
+        <v>4579.08</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24191</v>
+        <v>1.2442</v>
       </c>
       <c r="B42" t="n">
-        <v>4.923649999999999</v>
+        <v>4.58817</v>
       </c>
       <c r="C42" t="n">
-        <v>4923.65</v>
+        <v>4588.17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27363</v>
+        <v>1.27558</v>
       </c>
       <c r="B43" t="n">
-        <v>4.78421</v>
+        <v>4.59705</v>
       </c>
       <c r="C43" t="n">
-        <v>4784.21</v>
+        <v>4597.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30535</v>
+        <v>1.30696</v>
       </c>
       <c r="B44" t="n">
-        <v>4.68255</v>
+        <v>4.60571</v>
       </c>
       <c r="C44" t="n">
-        <v>4682.55</v>
+        <v>4605.71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33707</v>
+        <v>1.33835</v>
       </c>
       <c r="B45" t="n">
-        <v>4.596220000000001</v>
+        <v>4.61418</v>
       </c>
       <c r="C45" t="n">
-        <v>4596.22</v>
+        <v>4614.18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.3688</v>
+        <v>1.36972</v>
       </c>
       <c r="B46" t="n">
-        <v>4.54329</v>
+        <v>4.62244</v>
       </c>
       <c r="C46" t="n">
-        <v>4543.29</v>
+        <v>4622.44</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40021</v>
+        <v>1.4011</v>
       </c>
       <c r="B47" t="n">
-        <v>4.48229</v>
+        <v>4.630520000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>4482.29</v>
+        <v>4630.52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43163</v>
+        <v>1.43249</v>
       </c>
       <c r="B48" t="n">
-        <v>4.37713</v>
+        <v>4.63842</v>
       </c>
       <c r="C48" t="n">
-        <v>4377.13</v>
+        <v>4638.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46304</v>
+        <v>1.46387</v>
       </c>
       <c r="B49" t="n">
-        <v>4.34053</v>
+        <v>4.64613</v>
       </c>
       <c r="C49" t="n">
-        <v>4340.53</v>
+        <v>4646.13</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49473</v>
+        <v>1.49525</v>
       </c>
       <c r="B50" t="n">
-        <v>4.23037</v>
+        <v>4.65368</v>
       </c>
       <c r="C50" t="n">
-        <v>4230.37</v>
+        <v>4653.68</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52642</v>
+        <v>1.52663</v>
       </c>
       <c r="B51" t="n">
-        <v>4.17684</v>
+        <v>4.661060000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>4176.84</v>
+        <v>4661.06</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55769</v>
+        <v>1.55783</v>
       </c>
       <c r="B52" t="n">
-        <v>4.10037</v>
+        <v>4.66826</v>
       </c>
       <c r="C52" t="n">
-        <v>4100.37</v>
+        <v>4668.26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58854</v>
+        <v>1.5888</v>
       </c>
       <c r="B53" t="n">
-        <v>4.04309</v>
+        <v>4.67532</v>
       </c>
       <c r="C53" t="n">
-        <v>4043.09</v>
+        <v>4675.32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61926</v>
+        <v>1.61977</v>
       </c>
       <c r="B54" t="n">
-        <v>3.97095</v>
+        <v>4.68222</v>
       </c>
       <c r="C54" t="n">
-        <v>3970.95</v>
+        <v>4682.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65018</v>
+        <v>1.65074</v>
       </c>
       <c r="B55" t="n">
-        <v>3.90528</v>
+        <v>4.68894</v>
       </c>
       <c r="C55" t="n">
-        <v>3905.28</v>
+        <v>4688.94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68184</v>
+        <v>1.68171</v>
       </c>
       <c r="B56" t="n">
-        <v>3.86739</v>
+        <v>4.6955</v>
       </c>
       <c r="C56" t="n">
-        <v>3867.39</v>
+        <v>4695.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71308</v>
+        <v>1.71267</v>
       </c>
       <c r="B57" t="n">
-        <v>3.81558</v>
+        <v>4.701899999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>3815.58</v>
+        <v>4701.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74407</v>
+        <v>1.74364</v>
       </c>
       <c r="B58" t="n">
-        <v>3.74933</v>
+        <v>4.70815</v>
       </c>
       <c r="C58" t="n">
-        <v>3749.33</v>
+        <v>4708.15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77471</v>
+        <v>1.77461</v>
       </c>
       <c r="B59" t="n">
-        <v>3.67359</v>
+        <v>4.71425</v>
       </c>
       <c r="C59" t="n">
-        <v>3673.59</v>
+        <v>4714.25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80621</v>
+        <v>1.80557</v>
       </c>
       <c r="B60" t="n">
-        <v>3.64081</v>
+        <v>4.72021</v>
       </c>
       <c r="C60" t="n">
-        <v>3640.81</v>
+        <v>4720.21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.8374</v>
+        <v>1.83654</v>
       </c>
       <c r="B61" t="n">
-        <v>3.59184</v>
+        <v>4.72604</v>
       </c>
       <c r="C61" t="n">
-        <v>3591.84</v>
+        <v>4726.04</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86902</v>
+        <v>1.86751</v>
       </c>
       <c r="B62" t="n">
-        <v>3.55303</v>
+        <v>4.73173</v>
       </c>
       <c r="C62" t="n">
-        <v>3553.03</v>
+        <v>4731.73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.90064</v>
+        <v>1.89848</v>
       </c>
       <c r="B63" t="n">
-        <v>3.4864</v>
+        <v>4.73726</v>
       </c>
       <c r="C63" t="n">
-        <v>3486.4</v>
+        <v>4737.26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93172</v>
+        <v>1.92945</v>
       </c>
       <c r="B64" t="n">
-        <v>3.45145</v>
+        <v>4.74269</v>
       </c>
       <c r="C64" t="n">
-        <v>3451.45</v>
+        <v>4742.69</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96234</v>
+        <v>1.96015</v>
       </c>
       <c r="B65" t="n">
-        <v>3.40443</v>
+        <v>4.74797</v>
       </c>
       <c r="C65" t="n">
-        <v>3404.43</v>
+        <v>4747.97</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99346</v>
+        <v>1.9907</v>
       </c>
       <c r="B66" t="n">
-        <v>3.36955</v>
+        <v>4.75315</v>
       </c>
       <c r="C66" t="n">
-        <v>3369.55</v>
+        <v>4753.15</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02489</v>
+        <v>2.02126</v>
       </c>
       <c r="B67" t="n">
-        <v>3.32118</v>
+        <v>4.75818</v>
       </c>
       <c r="C67" t="n">
-        <v>3321.18</v>
+        <v>4758.18</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05529</v>
+        <v>2.05181</v>
       </c>
       <c r="B68" t="n">
-        <v>3.29167</v>
+        <v>4.76309</v>
       </c>
       <c r="C68" t="n">
-        <v>3291.67</v>
+        <v>4763.09</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08569</v>
+        <v>2.08237</v>
       </c>
       <c r="B69" t="n">
-        <v>3.24084</v>
+        <v>4.76787</v>
       </c>
       <c r="C69" t="n">
-        <v>3240.84</v>
+        <v>4767.87</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11765</v>
+        <v>2.11292</v>
       </c>
       <c r="B70" t="n">
-        <v>3.21446</v>
+        <v>4.77252</v>
       </c>
       <c r="C70" t="n">
-        <v>3214.46</v>
+        <v>4772.52</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14863</v>
+        <v>2.14347</v>
       </c>
       <c r="B71" t="n">
-        <v>3.17802</v>
+        <v>4.777060000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>3178.02</v>
+        <v>4777.06</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17957</v>
+        <v>2.17435</v>
       </c>
       <c r="B72" t="n">
-        <v>3.1494</v>
+        <v>4.78154</v>
       </c>
       <c r="C72" t="n">
-        <v>3149.4</v>
+        <v>4781.54</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.21103</v>
+        <v>2.20593</v>
       </c>
       <c r="B73" t="n">
-        <v>3.14373</v>
+        <v>4.786</v>
       </c>
       <c r="C73" t="n">
-        <v>3143.73</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24194</v>
+        <v>2.2375</v>
       </c>
       <c r="B74" t="n">
-        <v>3.13767</v>
+        <v>4.79034</v>
       </c>
       <c r="C74" t="n">
-        <v>3137.67</v>
+        <v>4790.34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27191</v>
+        <v>2.26907</v>
       </c>
       <c r="B75" t="n">
-        <v>3.11418</v>
+        <v>4.79453</v>
       </c>
       <c r="C75" t="n">
-        <v>3114.18</v>
+        <v>4794.53</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30233</v>
+        <v>2.30065</v>
       </c>
       <c r="B76" t="n">
-        <v>3.08939</v>
+        <v>4.79862</v>
       </c>
       <c r="C76" t="n">
-        <v>3089.39</v>
+        <v>4798.62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33444</v>
+        <v>2.33222</v>
       </c>
       <c r="B77" t="n">
-        <v>3.08773</v>
+        <v>4.802600000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>3087.73</v>
+        <v>4802.6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.367</v>
+        <v>2.36379</v>
       </c>
       <c r="B78" t="n">
-        <v>3.09221</v>
+        <v>4.80645</v>
       </c>
       <c r="C78" t="n">
-        <v>3092.21</v>
+        <v>4806.45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.3981</v>
+        <v>2.39537</v>
       </c>
       <c r="B79" t="n">
-        <v>3.08438</v>
+        <v>4.8102</v>
       </c>
       <c r="C79" t="n">
-        <v>3084.38</v>
+        <v>4810.2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.42862</v>
+        <v>2.42694</v>
       </c>
       <c r="B80" t="n">
-        <v>3.06841</v>
+        <v>4.81384</v>
       </c>
       <c r="C80" t="n">
-        <v>3068.41</v>
+        <v>4813.84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.46146</v>
+        <v>2.45852</v>
       </c>
       <c r="B81" t="n">
-        <v>3.04746</v>
+        <v>4.81735</v>
       </c>
       <c r="C81" t="n">
-        <v>3047.46</v>
+        <v>4817.35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.49472</v>
+        <v>2.48942</v>
       </c>
       <c r="B82" t="n">
-        <v>3.00968</v>
+        <v>4.82075</v>
       </c>
       <c r="C82" t="n">
-        <v>3009.68</v>
+        <v>4820.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.528</v>
+        <v>2.52013</v>
       </c>
       <c r="B83" t="n">
-        <v>3.01601</v>
+        <v>4.824050000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>3016.01</v>
+        <v>4824.05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.56128</v>
+        <v>2.55086</v>
       </c>
       <c r="B84" t="n">
-        <v>3.01088</v>
+        <v>4.827229999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>3010.88</v>
+        <v>4827.23</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.59385</v>
+        <v>2.58158</v>
       </c>
       <c r="B85" t="n">
-        <v>2.97979</v>
+        <v>4.830310000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>2979.79</v>
+        <v>4830.31</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.62472</v>
+        <v>2.61229</v>
       </c>
       <c r="B86" t="n">
-        <v>2.9525</v>
+        <v>4.833270000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>2952.5</v>
+        <v>4833.27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.65547</v>
+        <v>2.64302</v>
       </c>
       <c r="B87" t="n">
-        <v>2.93479</v>
+        <v>4.83613</v>
       </c>
       <c r="C87" t="n">
-        <v>2934.79</v>
+        <v>4836.13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.68619</v>
+        <v>2.67374</v>
       </c>
       <c r="B88" t="n">
-        <v>2.92023</v>
+        <v>4.83887</v>
       </c>
       <c r="C88" t="n">
-        <v>2920.23</v>
+        <v>4838.87</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.71691</v>
+        <v>2.70446</v>
       </c>
       <c r="B89" t="n">
-        <v>2.91355</v>
+        <v>4.84151</v>
       </c>
       <c r="C89" t="n">
-        <v>2913.55</v>
+        <v>4841.51</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74763</v>
+        <v>2.73517</v>
       </c>
       <c r="B90" t="n">
-        <v>2.90858</v>
+        <v>4.84403</v>
       </c>
       <c r="C90" t="n">
-        <v>2908.58</v>
+        <v>4844.03</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77835</v>
+        <v>2.7659</v>
       </c>
       <c r="B91" t="n">
-        <v>2.90534</v>
+        <v>4.84646</v>
       </c>
       <c r="C91" t="n">
-        <v>2905.34</v>
+        <v>4846.46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80907</v>
+        <v>2.79662</v>
       </c>
       <c r="B92" t="n">
-        <v>2.87838</v>
+        <v>4.848770000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>2878.38</v>
+        <v>4848.77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83926</v>
+        <v>2.82734</v>
       </c>
       <c r="B93" t="n">
-        <v>2.85376</v>
+        <v>4.85097</v>
       </c>
       <c r="C93" t="n">
-        <v>2853.76</v>
+        <v>4850.97</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8677</v>
+        <v>2.85805</v>
       </c>
       <c r="B94" t="n">
-        <v>2.84891</v>
+        <v>4.85308</v>
       </c>
       <c r="C94" t="n">
-        <v>2848.91</v>
+        <v>4853.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89591</v>
+        <v>2.88878</v>
       </c>
       <c r="B95" t="n">
-        <v>2.84528</v>
+        <v>4.855090000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>2845.28</v>
+        <v>4855.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92407</v>
+        <v>2.9195</v>
       </c>
       <c r="B96" t="n">
-        <v>2.81038</v>
+        <v>4.857</v>
       </c>
       <c r="C96" t="n">
-        <v>2810.38</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95223</v>
+        <v>2.95021</v>
       </c>
       <c r="B97" t="n">
-        <v>2.81772</v>
+        <v>4.85882</v>
       </c>
       <c r="C97" t="n">
-        <v>2817.72</v>
+        <v>4858.82</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98039</v>
+        <v>2.98094</v>
       </c>
       <c r="B98" t="n">
-        <v>2.78693</v>
+        <v>4.86053</v>
       </c>
       <c r="C98" t="n">
-        <v>2786.93</v>
+        <v>4860.53</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00951</v>
+        <v>3.01166</v>
       </c>
       <c r="B99" t="n">
-        <v>2.77746</v>
+        <v>4.862109999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>2777.46</v>
+        <v>4862.11</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04378</v>
+        <v>3.04238</v>
       </c>
       <c r="B100" t="n">
-        <v>2.75679</v>
+        <v>4.863600000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>2756.79</v>
+        <v>4863.6</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07893</v>
+        <v>3.07309</v>
       </c>
       <c r="B101" t="n">
-        <v>2.74852</v>
+        <v>4.86495</v>
       </c>
       <c r="C101" t="n">
-        <v>2748.52</v>
+        <v>4864.95</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11413</v>
+        <v>3.10373</v>
       </c>
       <c r="B102" t="n">
-        <v>2.73021</v>
+        <v>4.86621</v>
       </c>
       <c r="C102" t="n">
-        <v>2730.21</v>
+        <v>4866.21</v>
       </c>
     </row>
   </sheetData>
